--- a/Sprint 2/Sprint_Backlog/Sprint 2 backlog.xlsx
+++ b/Sprint 2/Sprint_Backlog/Sprint 2 backlog.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>Sprint 2</t>
   </si>
@@ -118,28 +118,31 @@
     <t>Accepted?</t>
   </si>
   <si>
-    <t>#19 as a researcher I want to access my own experiments?</t>
-  </si>
-  <si>
-    <t>When researcher logs in they can see all of their questionnaires, as well as data about it</t>
+    <t>As a principal researcher, I want full access to my own experiments so that I can view and keep track of all the relevant data/progress at any time.</t>
+  </si>
+  <si>
+    <t>When researcher logs in they can see all of their questionnaires in one place, as well as data about it</t>
+  </si>
+  <si>
+    <t>NOT AN ACTIVE STORY UNLESS LATER WE NEED MORE VELOCITY</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>2. As a researcher, I want to be able to export data from the questionnaire so that the data can be used for analysis.</t>
+  </si>
+  <si>
+    <t>All of the questionairre responses can be downloaded in an accessible and easily processible format</t>
+  </si>
+  <si>
+    <t>Timothy, Laura</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>2. As a researcher, I want to be able to export data from the questionnaire so that the data can be used for analysis.</t>
-  </si>
-  <si>
-    <t>All of the questionairre responses can be downloaded in an accessible and easily processible format</t>
-  </si>
-  <si>
-    <t>Timothy, Laura</t>
-  </si>
-  <si>
-    <t>3. As a stakeholder, I want participants to only have access to questionnaires so that the rest of the experiment is private and safe</t>
-  </si>
-  <si>
-    <t>When participants log in, they will only have access to questionnaires on their homepage.</t>
+    <t>(removed story #9 as it is more of an acceptance test than an independant story)</t>
   </si>
   <si>
     <t>4. As a researcher I want to be able to send questionnaires for participants to fill in so I can collect data from users</t>
@@ -189,7 +192,7 @@
     <t>Definition of Done:</t>
   </si>
   <si>
-    <t>Developer Tasks</t>
+    <t>Developer Tasks (each story broken down to steps to identify tasks)</t>
   </si>
   <si>
     <t>Create login page</t>
@@ -317,7 +320,7 @@
     <t>Yesterday Progress</t>
   </si>
   <si>
-    <t>Issues</t>
+    <t>Issues/Impediments</t>
   </si>
   <si>
     <t>Today's Work Plan</t>
@@ -327,6 +330,18 @@
   </si>
   <si>
     <t>M,B,S,I</t>
+  </si>
+  <si>
+    <t>2M, 5.5B, 0.5S</t>
+  </si>
+  <si>
+    <t>Yesterday we planned this sprint</t>
+  </si>
+  <si>
+    <t>Not many yet! Possible internet issues</t>
+  </si>
+  <si>
+    <t>- Get sendquestionairre integrated                       - Get login page setup                              - Work on frontend questionairre builder                                                                 -SQL CSV transpose</t>
   </si>
   <si>
     <t xml:space="preserve">daily scrum shouldn't cover the technicalities of work, it should focus on the next steps and help keep things moving - technicalities can be done at other times aside from the scrum </t>
@@ -339,7 +354,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -370,6 +385,11 @@
     <font>
       <sz val="8.0"/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FFA712A7"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -411,8 +431,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor theme="6"/>
+        <fgColor rgb="FFFFE2F9"/>
+        <bgColor rgb="FFFFE2F9"/>
       </patternFill>
     </fill>
   </fills>
@@ -530,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="44">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -587,10 +607,7 @@
     <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -605,22 +622,10 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -630,16 +635,16 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -647,6 +652,12 @@
     </xf>
     <xf borderId="15" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1003,341 +1014,341 @@
       <c r="D13" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="H13" s="23">
+      <c r="F13" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="26"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="26"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="25">
         <v>3.0</v>
       </c>
-      <c r="I13" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="23"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="27"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="29" t="s">
+      <c r="I17" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="30"/>
-      <c r="H15" s="31">
-        <v>2.0</v>
-      </c>
-      <c r="I15" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="32"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="27"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="I17" s="26" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="18">
-      <c r="A18" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="34" t="s">
+      <c r="A18" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="34" t="s">
+      <c r="E18" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
+      <c r="F18" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
     </row>
     <row r="19">
       <c r="G19" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J19" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
+      <c r="J19" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="38" t="s">
-        <v>45</v>
+      <c r="G20" s="33" t="s">
+        <v>46</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L21" s="24" t="s">
         <v>54</v>
       </c>
+      <c r="L21" s="23" t="s">
+        <v>55</v>
+      </c>
       <c r="N21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="R21" s="24" t="s">
         <v>56</v>
       </c>
+      <c r="R21" s="23" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="24" t="s">
-        <v>57</v>
+      <c r="A22" s="23" t="s">
+        <v>58</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
+        <v>59</v>
+      </c>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
     </row>
     <row r="23">
-      <c r="A23" s="24" t="s">
-        <v>59</v>
+      <c r="A23" s="23" t="s">
+        <v>60</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="J23" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="N23" s="24" t="s">
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="J23" s="23" t="s">
         <v>62</v>
       </c>
+      <c r="N23" s="23" t="s">
+        <v>63</v>
+      </c>
       <c r="P23" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="39" t="s">
-        <v>64</v>
+      <c r="A24" s="34" t="s">
+        <v>65</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="J24" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="N24" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="J24" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="P24" s="24" t="s">
+      <c r="N24" s="23" t="s">
         <v>67</v>
+      </c>
+      <c r="P24" s="23" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="J25" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="P25" s="24" t="s">
+      <c r="J25" s="23" t="s">
         <v>71</v>
       </c>
+      <c r="P25" s="23" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="24" t="s">
-        <v>72</v>
+      <c r="A26" s="23" t="s">
+        <v>73</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
       <c r="I30" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="40" t="s">
-        <v>78</v>
+      <c r="A31" s="35" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="B32" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="42"/>
-      <c r="E32" s="41" t="s">
+      <c r="C32" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="F32" s="42"/>
-      <c r="G32" s="41" t="s">
+      <c r="D32" s="37"/>
+      <c r="E32" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="H32" s="43"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" s="38"/>
     </row>
     <row r="33">
       <c r="A33" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C33" s="7"/>
     </row>
     <row r="34">
-      <c r="A34" s="44"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="G34" s="24"/>
+      <c r="A34" s="39">
+        <v>44228.0</v>
+      </c>
+      <c r="B34" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="44"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="G35" s="45"/>
-      <c r="I35" s="46" t="s">
-        <v>86</v>
+      <c r="A35" s="41"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="G35" s="42"/>
+      <c r="I35" s="43" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="44"/>
-      <c r="C36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="G36" s="24"/>
+      <c r="A36" s="41"/>
+      <c r="C36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="G36" s="23"/>
     </row>
     <row r="37">
-      <c r="A37" s="44"/>
-      <c r="E37" s="24"/>
-      <c r="G37" s="24"/>
+      <c r="A37" s="41"/>
+      <c r="E37" s="23"/>
+      <c r="G37" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="79">
+  <mergeCells count="77">
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="J19:K19"/>
     <mergeCell ref="G20:H22"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
+    <mergeCell ref="J19:N19"/>
     <mergeCell ref="P24:Q24"/>
     <mergeCell ref="R24:S24"/>
     <mergeCell ref="N25:O25"/>
@@ -1367,11 +1378,11 @@
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
     <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
     <mergeCell ref="I35:K38"/>
     <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G34:H34"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A11:C12"/>
     <mergeCell ref="D11:E12"/>
@@ -1379,15 +1390,13 @@
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F14:G14"/>
-    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A15:K15"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="A16:C16"/>

--- a/Sprint 2/Sprint_Backlog/Sprint 2 backlog.xlsx
+++ b/Sprint 2/Sprint_Backlog/Sprint 2 backlog.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="99">
   <si>
     <t>Sprint 2</t>
   </si>
@@ -198,7 +198,7 @@
     <t>Create login page</t>
   </si>
   <si>
-    <t>Shanna</t>
+    <t>Shanna, Gina</t>
   </si>
   <si>
     <t>-Meets accessibility guidelines
@@ -266,6 +266,9 @@
     <t>Send questionairre' page</t>
   </si>
   <si>
+    <t>Yes, 01/02/21 - page done, need questionnaires to send</t>
+  </si>
+  <si>
     <t>3. view questionairre page (show q's)</t>
   </si>
   <si>
@@ -300,6 +303,12 @@
   </si>
   <si>
     <t>Cally</t>
+  </si>
+  <si>
+    <t>Logins on the SQL stuff (views?)</t>
+  </si>
+  <si>
+    <t>Ema</t>
   </si>
   <si>
     <t>mocktail (happy) 
@@ -342,6 +351,18 @@
   </si>
   <si>
     <t>- Get sendquestionairre integrated                       - Get login page setup                              - Work on frontend questionairre builder                                                                 -SQL CSV transpose</t>
+  </si>
+  <si>
+    <t>2M, 5b, 1S</t>
+  </si>
+  <si>
+    <t>Send questionnaire done! Just need actual 'questionnaires' to send</t>
+  </si>
+  <si>
+    <t>Possible internet issues, inexperience with cshtml and html for some members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Get new entity framework pushing and pulling database stuff                              - Work on design stuff                              - Work on remaining web pages </t>
   </si>
   <si>
     <t xml:space="preserve">daily scrum shouldn't cover the technicalities of work, it should focus on the next steps and help keep things moving - technicalities can be done at other times aside from the scrum </t>
@@ -550,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -607,7 +628,7 @@
     <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -638,6 +659,9 @@
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
@@ -652,14 +676,14 @@
     </xf>
     <xf borderId="15" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -1120,12 +1144,12 @@
       <c r="A20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="33" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="34" t="s">
         <v>46</v>
       </c>
       <c r="J20" s="8" t="s">
@@ -1191,8 +1215,8 @@
       <c r="D23" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
       <c r="J23" s="23" t="s">
         <v>62</v>
       </c>
@@ -1204,49 +1228,52 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="35" t="s">
         <v>65</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
+      <c r="F24" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
       <c r="J24" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N24" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P24" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J25" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P25" s="23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>59</v>
@@ -1254,135 +1281,150 @@
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="30">
       <c r="I30" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="35" t="s">
-        <v>79</v>
+      <c r="A31" s="36" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="F32" s="37"/>
-      <c r="G32" s="36" t="s">
+      <c r="B32" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="H32" s="38"/>
+      <c r="C32" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="38"/>
+      <c r="E32" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" s="38"/>
+      <c r="G32" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" s="39"/>
     </row>
     <row r="33">
       <c r="A33" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C33" s="7"/>
     </row>
     <row r="34">
-      <c r="A34" s="39">
+      <c r="A34" s="40">
         <v>44228.0</v>
       </c>
-      <c r="B34" s="40" t="s">
-        <v>87</v>
+      <c r="B34" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="41"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="G35" s="42"/>
-      <c r="I35" s="43" t="s">
-        <v>91</v>
+      <c r="A35" s="41">
+        <v>44229.0</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G35" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="I35" s="44" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="41"/>
+      <c r="A36" s="40"/>
       <c r="C36" s="23"/>
       <c r="E36" s="23"/>
       <c r="G36" s="23"/>
     </row>
     <row r="37">
-      <c r="A37" s="41"/>
+      <c r="A37" s="40"/>
       <c r="E37" s="23"/>
       <c r="G37" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="78">
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H22"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
     <mergeCell ref="P23:Q23"/>
     <mergeCell ref="R23:S23"/>
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:K38"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="I30:J33"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="G32:H32"/>
-    <mergeCell ref="E33:F33"/>
     <mergeCell ref="G33:H33"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="I35:K38"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G34:H34"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A11:C12"/>
     <mergeCell ref="D11:E12"/>
@@ -1399,23 +1441,27 @@
     <mergeCell ref="A15:K15"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="J19:N19"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A18:C19"/>
+    <mergeCell ref="A20:C20"/>
     <mergeCell ref="F17:G17"/>
-    <mergeCell ref="A18:C19"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="I30:J33"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="G20:H22"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="P26:Q26"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Sprint 2/Sprint_Backlog/Sprint 2 backlog.xlsx
+++ b/Sprint 2/Sprint_Backlog/Sprint 2 backlog.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="105">
   <si>
     <t>Sprint 2</t>
   </si>
@@ -201,6 +201,12 @@
     <t>Shanna, Gina</t>
   </si>
   <si>
+    <t>2,3,4,5</t>
+  </si>
+  <si>
+    <t>Yes, 02/02/21</t>
+  </si>
+  <si>
     <t>-Meets accessibility guidelines
 -Is UoD branded 
 -Code has been reviewed
@@ -266,7 +272,7 @@
     <t>Send questionairre' page</t>
   </si>
   <si>
-    <t>Yes, 01/02/21 - page done, need questionnaires to send</t>
+    <t>Yes, 01/02/21</t>
   </si>
   <si>
     <t>3. view questionairre page (show q's)</t>
@@ -366,6 +372,18 @@
   </si>
   <si>
     <t xml:space="preserve">daily scrum shouldn't cover the technicalities of work, it should focus on the next steps and help keep things moving - technicalities can be done at other times aside from the scrum </t>
+  </si>
+  <si>
+    <t>2M, 1B, 2S, 0.5I</t>
+  </si>
+  <si>
+    <t>Login page done but not with database yet. Entity framework pushing and pulling</t>
+  </si>
+  <si>
+    <t>Internet issues! Members doing database work need to go through database learning curve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Get members comfortable with database                                                    - Get fill questionnairre page running                            - parse JSON   </t>
   </si>
 </sst>
 </file>
@@ -375,7 +393,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -421,8 +439,9 @@
     <font>
       <b/>
       <sz val="12.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
     </font>
   </fonts>
   <fills count="6">
@@ -671,6 +690,9 @@
     <xf borderId="14" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -679,17 +701,14 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1147,59 +1166,63 @@
       <c r="D20" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="E20" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>47</v>
+      </c>
       <c r="G20" s="34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L21" s="23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R21" s="23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J22" s="23"/>
       <c r="K22" s="23"/>
@@ -1210,180 +1233,196 @@
     </row>
     <row r="23">
       <c r="A23" s="23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G23" s="34"/>
       <c r="H23" s="34"/>
       <c r="J23" s="23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N23" s="23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="35" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>35</v>
       </c>
+      <c r="E24" s="7">
+        <v>4.0</v>
+      </c>
       <c r="F24" s="33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G24" s="34"/>
       <c r="H24" s="34"/>
       <c r="J24" s="23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N24" s="23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P24" s="23" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>71</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E25" s="33"/>
       <c r="J25" s="23" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P25" s="23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>75</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E26" s="33"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="I30" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="36" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="8" t="s">
+    <row r="34">
+      <c r="I34" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="37" t="s">
+    </row>
+    <row r="35">
+      <c r="A35" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="37" t="s">
+    </row>
+    <row r="36">
+      <c r="A36" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="37" t="s">
+      <c r="B36" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="F32" s="38"/>
-      <c r="G32" s="37" t="s">
+      <c r="C36" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="H32" s="39"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="7" t="s">
+      <c r="D36" s="39"/>
+      <c r="E36" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="F36" s="39"/>
+      <c r="G36" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="7"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="40">
+      <c r="H36" s="40"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="7"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="41">
         <v>44228.0</v>
       </c>
-      <c r="B34" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" s="23" t="s">
+      <c r="B38" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="G34" s="23" t="s">
+      <c r="C38" s="23" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="41">
+      <c r="E38" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="41">
         <v>44229.0</v>
       </c>
-      <c r="B35" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="E35" s="23" t="s">
+      <c r="B39" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="G35" s="43" t="s">
+      <c r="C39" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="I35" s="44" t="s">
+      <c r="E39" s="23" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="40"/>
-      <c r="C36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="G36" s="23"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="40"/>
-      <c r="E37" s="23"/>
-      <c r="G37" s="23"/>
+      <c r="G39" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="I39" s="43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="44">
+        <v>44230.0</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="41"/>
+      <c r="E41" s="23"/>
+      <c r="G41" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="78">
+  <mergeCells count="79">
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="P24:Q24"/>
     <mergeCell ref="J23:K23"/>
@@ -1394,37 +1433,6 @@
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="R24:S24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:K38"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="I30:J33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A11:C12"/>
     <mergeCell ref="D11:E12"/>
@@ -1462,6 +1470,38 @@
     <mergeCell ref="P25:Q25"/>
     <mergeCell ref="R25:S25"/>
     <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="I34:J37"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="I39:K42"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Sprint 2/Sprint_Backlog/Sprint 2 backlog.xlsx
+++ b/Sprint 2/Sprint_Backlog/Sprint 2 backlog.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="110">
   <si>
     <t>Sprint 2</t>
   </si>
@@ -254,6 +254,9 @@
     <t>Laura</t>
   </si>
   <si>
+    <t>Yes, 03/02/21</t>
+  </si>
+  <si>
     <t>Turn stored medium text into CSV file that can be downloaded with button/(after storing answers in database)</t>
   </si>
   <si>
@@ -314,7 +317,7 @@
     <t>Logins on the SQL stuff (views?)</t>
   </si>
   <si>
-    <t>Ema</t>
+    <t>Ema, Shanna, Gina</t>
   </si>
   <si>
     <t>mocktail (happy) 
@@ -384,6 +387,18 @@
   </si>
   <si>
     <t xml:space="preserve">- Get members comfortable with database                                                    - Get fill questionnairre page running                            - parse JSON   </t>
+  </si>
+  <si>
+    <t>2B, 5S, 1I</t>
+  </si>
+  <si>
+    <t>Json work done! Front end stuff tedious, time and dates added to project cards</t>
+  </si>
+  <si>
+    <t>Internet ):  Documentation for razor, front end stuff being slower than anticipated</t>
+  </si>
+  <si>
+    <t>- Get login working with a database                                     - Questionnaire page                                     - Allow researchers to view and export results!</t>
   </si>
 </sst>
 </file>
@@ -393,7 +408,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -439,9 +454,8 @@
     <font>
       <b/>
       <sz val="12.0"/>
-    </font>
-    <font>
-      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="6">
@@ -590,7 +604,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -678,19 +692,16 @@
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="14" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1163,16 +1174,16 @@
       <c r="A20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="G20" s="33" t="s">
         <v>48</v>
       </c>
       <c r="J20" s="8" t="s">
@@ -1223,6 +1234,9 @@
       </c>
       <c r="D22" s="7" t="s">
         <v>61</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="J22" s="23"/>
       <c r="K22" s="23"/>
@@ -1233,26 +1247,26 @@
     </row>
     <row r="23">
       <c r="A23" s="23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
+        <v>64</v>
+      </c>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
       <c r="J23" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N23" s="23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="35" t="s">
-        <v>67</v>
+      <c r="A24" s="34" t="s">
+        <v>68</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>35</v>
@@ -1260,48 +1274,48 @@
       <c r="E24" s="7">
         <v>4.0</v>
       </c>
-      <c r="F24" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
+      <c r="F24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
       <c r="J24" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N24" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P24" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" s="33"/>
+        <v>74</v>
+      </c>
+      <c r="E25" s="7"/>
       <c r="J25" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P25" s="23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="33"/>
+        <v>78</v>
+      </c>
+      <c r="E26" s="7"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>61</v>
@@ -1309,117 +1323,129 @@
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="7" t="s">
         <v>82</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="34">
       <c r="I34" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" s="38" t="s">
+      <c r="A36" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="B36" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="39"/>
-      <c r="E36" s="38" t="s">
+      <c r="C36" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="F36" s="39"/>
-      <c r="G36" s="38" t="s">
+      <c r="D36" s="38"/>
+      <c r="E36" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="H36" s="40"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="H36" s="39"/>
     </row>
     <row r="37">
-      <c r="A37" s="33" t="s">
-        <v>90</v>
+      <c r="A37" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C37" s="7"/>
     </row>
     <row r="38">
-      <c r="A38" s="41">
+      <c r="A38" s="40">
         <v>44228.0</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G38" s="23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="41">
+      <c r="A39" s="40">
         <v>44229.0</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="G39" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="I39" s="43" t="s">
+      <c r="G39" s="41" t="s">
         <v>100</v>
       </c>
+      <c r="I39" s="42" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="44">
+      <c r="A40" s="40">
         <v>44230.0</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G40" s="23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="41"/>
-      <c r="E41" s="23"/>
-      <c r="G41" s="23"/>
+      <c r="A41" s="43">
+        <v>44231.0</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="79">
@@ -1433,6 +1459,38 @@
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="R24:S24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="I34:J37"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:K42"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A11:C12"/>
     <mergeCell ref="D11:E12"/>
@@ -1470,38 +1528,6 @@
     <mergeCell ref="P25:Q25"/>
     <mergeCell ref="R25:S25"/>
     <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="I34:J37"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="I39:K42"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Sprint 2/Sprint_Backlog/Sprint 2 backlog.xlsx
+++ b/Sprint 2/Sprint_Backlog/Sprint 2 backlog.xlsx
@@ -11,18 +11,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="116">
   <si>
     <t>Sprint 2</t>
   </si>
   <si>
+    <t>Team 9</t>
+  </si>
+  <si>
     <t>Members:</t>
   </si>
   <si>
     <t>Roles:</t>
   </si>
   <si>
-    <t>Sprint Date: 01/02/21 - 05/01/21</t>
+    <t>Sprint Date: 01/02/21 - 05/02/21</t>
   </si>
   <si>
     <t>Gina Fenton</t>
@@ -65,7 +68,7 @@
     <t>Calum Parsons</t>
   </si>
   <si>
-    <t>Initial Velocity = 7</t>
+    <t>Velocity = 7</t>
   </si>
   <si>
     <t>Shanna Balfour</t>
@@ -118,13 +121,13 @@
     <t>Accepted?</t>
   </si>
   <si>
-    <t>As a principal researcher, I want full access to my own experiments so that I can view and keep track of all the relevant data/progress at any time.</t>
+    <t>1. As a principal researcher, I want full access to my own experiments so that I can view and keep track of all the relevant data/progress at any time.</t>
   </si>
   <si>
     <t>When researcher logs in they can see all of their questionnaires in one place, as well as data about it</t>
   </si>
   <si>
-    <t>NOT AN ACTIVE STORY UNLESS LATER WE NEED MORE VELOCITY</t>
+    <t>Inactive Story</t>
   </si>
   <si>
     <t>N/A</t>
@@ -320,6 +323,9 @@
     <t>Ema, Shanna, Gina</t>
   </si>
   <si>
+    <t>Yes, 04/02/21</t>
+  </si>
+  <si>
     <t>mocktail (happy) 
 beer (ok still) 
 spirit (getting bad)
@@ -399,6 +405,18 @@
   </si>
   <si>
     <t>- Get login working with a database                                     - Questionnaire page                                     - Allow researchers to view and export results!</t>
+  </si>
+  <si>
+    <t>4B, 1S, 1I</t>
+  </si>
+  <si>
+    <t>Login works! View questionnaire seems close</t>
+  </si>
+  <si>
+    <t>Tired and stressed..</t>
+  </si>
+  <si>
+    <t>-Get features close to finished, finished</t>
   </si>
 </sst>
 </file>
@@ -408,7 +426,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -428,10 +446,17 @@
     <font>
       <b/>
       <sz val="11.0"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -604,13 +629,16 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -629,7 +657,7 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -638,36 +666,36 @@
     <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="8" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="10" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -676,10 +704,10 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -688,27 +716,30 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -718,7 +749,7 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -945,510 +976,533 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="J1" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="J2" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
-      <c r="I3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="J3" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5">
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="5" t="s">
+      <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>10</v>
+      <c r="I6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
-      <c r="I7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>10</v>
+      <c r="I7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8">
-      <c r="I8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>10</v>
+      <c r="I8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9">
-      <c r="I9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>10</v>
+      <c r="I9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="s">
-        <v>17</v>
+      <c r="A10" s="12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="15" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="15" t="s">
+      <c r="E11" s="14"/>
+      <c r="F11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="G11" s="14"/>
+      <c r="H11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="I11" s="16" t="s">
         <v>23</v>
       </c>
+      <c r="J11" s="17" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12">
-      <c r="C12" s="17"/>
-      <c r="F12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="19"/>
+      <c r="C12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="20"/>
     </row>
     <row r="13">
-      <c r="A13" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="21" t="s">
+      <c r="A13" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="D13" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="F13" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>27</v>
+      <c r="H13" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="24" t="s">
+      <c r="A14" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="D14" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="25">
+      <c r="F14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="26">
         <v>2.0</v>
       </c>
-      <c r="I14" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="26"/>
+      <c r="I14" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="27"/>
     </row>
     <row r="15">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="I16" s="26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="25">
-        <v>2.0</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" s="26"/>
+      <c r="J16" s="27"/>
     </row>
     <row r="17">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+    </row>
+    <row r="19">
+      <c r="G19" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="L20" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="N20" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="R20" s="32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="J21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L21" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R21" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="J23" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="N23" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="25">
-        <v>3.0</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-    </row>
-    <row r="19">
-      <c r="G19" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J19" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="P20" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="R20" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="J21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L21" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="R21" s="23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="E24" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="J24" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="N24" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="P24" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="J25" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="P25" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="J23" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="N23" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="J24" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="N24" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="P24" s="23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="J25" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="P25" s="23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="28">
-      <c r="A28" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="7" t="s">
+      <c r="A28" s="8" t="s">
         <v>81</v>
       </c>
+      <c r="D28" s="8" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="35" t="s">
+      <c r="A29" s="8" t="s">
         <v>83</v>
       </c>
+      <c r="D29" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="34">
-      <c r="I34" s="7" t="s">
-        <v>84</v>
+      <c r="I34" s="8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="36" t="s">
-        <v>85</v>
+      <c r="A35" s="38" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="37" t="s">
+      <c r="A36" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="38"/>
-      <c r="E36" s="37" t="s">
+      <c r="B36" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="F36" s="38"/>
-      <c r="G36" s="37" t="s">
+      <c r="C36" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="H36" s="39"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" s="40"/>
+      <c r="G36" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="H36" s="41"/>
     </row>
     <row r="37">
-      <c r="A37" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="7"/>
+      <c r="A37" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="8"/>
     </row>
     <row r="38">
-      <c r="A38" s="40">
+      <c r="A38" s="42">
         <v>44228.0</v>
       </c>
-      <c r="B38" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="E38" s="23" t="s">
+      <c r="B38" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="G38" s="23" t="s">
+      <c r="C38" s="24" t="s">
         <v>96</v>
       </c>
+      <c r="E38" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="40">
+      <c r="A39" s="42">
         <v>44229.0</v>
       </c>
-      <c r="B39" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="E39" s="23" t="s">
+      <c r="B39" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="G39" s="41" t="s">
+      <c r="C39" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="I39" s="42" t="s">
+      <c r="E39" s="24" t="s">
         <v>101</v>
       </c>
+      <c r="G39" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="I39" s="44" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="40">
+      <c r="A40" s="42">
         <v>44230.0</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E40" s="23" t="s">
+      <c r="B40" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G40" s="23" t="s">
+      <c r="C40" s="24" t="s">
         <v>105</v>
       </c>
+      <c r="E40" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G40" s="24" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="43">
+      <c r="A41" s="45">
         <v>44231.0</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" s="23" t="s">
+      <c r="B41" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="G41" s="23" t="s">
+      <c r="C41" s="24" t="s">
         <v>109</v>
       </c>
+      <c r="E41" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="42">
+        <v>44232.0</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="79">
+  <mergeCells count="83">
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="P24:Q24"/>
     <mergeCell ref="J23:K23"/>
@@ -1480,10 +1534,13 @@
     <mergeCell ref="I39:K42"/>
     <mergeCell ref="G40:H40"/>
     <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="E41:F41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="C38:D38"/>
@@ -1498,6 +1555,7 @@
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
